--- a/biology/Virologie/Rétrovirus_endogène_humain_K/Rétrovirus_endogène_humain_K.xlsx
+++ b/biology/Virologie/Rétrovirus_endogène_humain_K/Rétrovirus_endogène_humain_K.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9trovirus_endog%C3%A8ne_humain_K</t>
+          <t>Rétrovirus_endogène_humain_K</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rétrovirus endogène humain K (HERV-K de l'anglais : Human endogenous retrovirus-K) ou virus humain dérivé du tératocarcinome (HDTV de l'anglais : Human teratocarcinoma-derivated virus) est une famille de rétrovirus endogènes humains associés à des tumeurs malignes des testicules[1],[2],[3],[4]. HERV-K est également présent chez les singes hominidés et aussi les singes de l'Ancien Monde (cercopithèques). 
-En 1999, Barbulescu et al. ont montré que, sur dix provirus HERV-K clonés, huit étaient uniques à l'homme, tandis qu'un était partagé avec des chimpanzés et des bonobos, et un avec des chimpanzés, des bonobos et des gorilles[5].
-En 2015, Grow et al. ont démontré que HERV-K est transcrit pendant l'embryogenèse depuis le stade des huit cellules jusqu'à la dérivation des cellules souches[6]. De plus, la surexpression de la protéine accessoire HERV-K Rec (régulateur d'expression codé par corf; Pfam   ) augmente les niveaux d' IFITM1 à la surface des cellules et inhibe l'infection virale[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rétrovirus endogène humain K (HERV-K de l'anglais : Human endogenous retrovirus-K) ou virus humain dérivé du tératocarcinome (HDTV de l'anglais : Human teratocarcinoma-derivated virus) est une famille de rétrovirus endogènes humains associés à des tumeurs malignes des testicules. HERV-K est également présent chez les singes hominidés et aussi les singes de l'Ancien Monde (cercopithèques). 
+En 1999, Barbulescu et al. ont montré que, sur dix provirus HERV-K clonés, huit étaient uniques à l'homme, tandis qu'un était partagé avec des chimpanzés et des bonobos, et un avec des chimpanzés, des bonobos et des gorilles.
+En 2015, Grow et al. ont démontré que HERV-K est transcrit pendant l'embryogenèse depuis le stade des huit cellules jusqu'à la dérivation des cellules souches. De plus, la surexpression de la protéine accessoire HERV-K Rec (régulateur d'expression codé par corf; Pfam   ) augmente les niveaux d' IFITM1 à la surface des cellules et inhibe l'infection virale.
 </t>
         </is>
       </c>
